--- a/biology/Botanique/Elymus_hispidus/Elymus_hispidus.xlsx
+++ b/biology/Botanique/Elymus_hispidus/Elymus_hispidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elymus hispidus, le chiendent intermédiaire, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie. 
 Ce sont des plantes herbacées vivaces, rhizomateuses, aux tiges (chaumes) dressées pouvant atteindre 80 cm de long et aux inflorescences composées de racèmes.
@@ -512,9 +524,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>chiendent glauque, chiendent intermédiaire, élyme à poils rudes[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>chiendent glauque, chiendent intermédiaire, élyme à poils rudes.</t>
         </is>
       </c>
     </row>
@@ -542,11 +556,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Elymus hispidus a été décrite pour la première fois en 1836 sous le nom d’Agropyron hispidum par le botaniste tchèque, Philipp Maximilian Opiz, et publiée dans Oekonomishc-technische Flora Böhmens 1: 413[3], puis renommée en 1978 sous son nom actuel par le botaniste letton, Aleksandre Melderis et publiée  dans le Botanical Journal of the Linnean Society 76 (4): 380[4].
-Synonymes
-Selon Catalogue of Life                                   (15 juillet 2018)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Elymus hispidus a été décrite pour la première fois en 1836 sous le nom d’Agropyron hispidum par le botaniste tchèque, Philipp Maximilian Opiz, et publiée dans Oekonomishc-technische Flora Böhmens 1: 413, puis renommée en 1978 sous son nom actuel par le botaniste letton, Aleksandre Melderis et publiée  dans le Botanical Journal of the Linnean Society 76 (4): 380.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Elymus_hispidus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elymus_hispidus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 juillet 2018) :
 Agropyron ambigens (Hausskn.) Roshev.
 Agropyron aucheri Boiss.
 Agropyron banaticum (Heuff.) Thaisz
@@ -594,12 +645,81 @@
 Triticum truncatum Wallr.
 Triticum virescens (Pancic) Asch.
 Zeia glauca (Roem. &amp; Schult.) Lunell
-Liste des variétés
-Selon BioLib                    (15 juillet 2018)[6] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elymus_hispidus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elymus_hispidus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (15 juillet 2018) :
 Elymus hispidus var. hispidus
-Elymus hispidus var. villosus (Hack.) Assadi
-Liste des sous-espèces
-Selon The Plant List            (15 juillet 2018)[1] :
+Elymus hispidus var. villosus (Hack.) Assadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elymus_hispidus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elymus_hispidus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (15 juillet 2018) :
 Elymus hispidus subsp. barbulatus (Schur) Melderis
 Elymus hispidus subsp. podperae (Nábelek) Melderis
 Elymus hispidus subsp. pouzolzii (Godr.) Melderis
